--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Tnf-Tnfrsf1b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,22 +79,22 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
   </si>
   <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Tnf</t>
   </si>
   <si>
     <t>Tnfrsf1b</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H2">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J2">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N2">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P2">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q2">
-        <v>88.85758967648405</v>
+        <v>89.15021074062402</v>
       </c>
       <c r="R2">
-        <v>88.85758967648405</v>
+        <v>802.3518966656161</v>
       </c>
       <c r="S2">
-        <v>0.003311501721318091</v>
+        <v>0.003104324232291576</v>
       </c>
       <c r="T2">
-        <v>0.003311501721318091</v>
+        <v>0.003104324232291576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H3">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J3">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N3">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P3">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q3">
-        <v>63.21892227952798</v>
+        <v>63.62258152776</v>
       </c>
       <c r="R3">
-        <v>63.21892227952798</v>
+        <v>572.60323374984</v>
       </c>
       <c r="S3">
-        <v>0.002356012251859847</v>
+        <v>0.002215419570147719</v>
       </c>
       <c r="T3">
-        <v>0.002356012251859847</v>
+        <v>0.002215419570147718</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H4">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J4">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N4">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P4">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q4">
-        <v>373.4884611522457</v>
+        <v>377.0036439084</v>
       </c>
       <c r="R4">
-        <v>373.4884611522457</v>
+        <v>3393.0327951756</v>
       </c>
       <c r="S4">
-        <v>0.01391898752263167</v>
+        <v>0.01312774852380432</v>
       </c>
       <c r="T4">
-        <v>0.01391898752263167</v>
+        <v>0.01312774852380432</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H5">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J5">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N5">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O5">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P5">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q5">
-        <v>562.7879651578669</v>
+        <v>569.6955114398199</v>
       </c>
       <c r="R5">
-        <v>562.7879651578669</v>
+        <v>5127.259602958379</v>
       </c>
       <c r="S5">
-        <v>0.02097370997956068</v>
+        <v>0.01983752552571921</v>
       </c>
       <c r="T5">
-        <v>0.02097370997956068</v>
+        <v>0.01983752552571921</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>6.01867309026437</v>
+        <v>6.033516</v>
       </c>
       <c r="H6">
-        <v>6.01867309026437</v>
+        <v>18.100548</v>
       </c>
       <c r="I6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="J6">
-        <v>0.0409490460397586</v>
+        <v>0.03870191373736741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N6">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P6">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q6">
-        <v>10.43360537970601</v>
+        <v>11.97244658084</v>
       </c>
       <c r="R6">
-        <v>10.43360537970601</v>
+        <v>107.75201922756</v>
       </c>
       <c r="S6">
-        <v>0.0003888345643883017</v>
+        <v>0.0004168958854045878</v>
       </c>
       <c r="T6">
-        <v>0.0003888345643883017</v>
+        <v>0.0004168958854045877</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -847,49 +847,49 @@
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H7">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J7">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N7">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P7">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q7">
-        <v>929.9562480267965</v>
+        <v>5.23698781263289</v>
       </c>
       <c r="R7">
-        <v>929.9562480267965</v>
+        <v>47.13289031369601</v>
       </c>
       <c r="S7">
-        <v>0.03465716015146702</v>
+        <v>0.0001823586061761691</v>
       </c>
       <c r="T7">
-        <v>0.03465716015146702</v>
+        <v>0.0001823586061761691</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H8">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J8">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N8">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P8">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q8">
-        <v>661.6298279237068</v>
+        <v>3.737407699893333</v>
       </c>
       <c r="R8">
-        <v>661.6298279237068</v>
+        <v>33.63666929904</v>
       </c>
       <c r="S8">
-        <v>0.02465730076656117</v>
+        <v>0.0001301413108544132</v>
       </c>
       <c r="T8">
-        <v>0.02465730076656117</v>
+        <v>0.0001301413108544132</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H9">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J9">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N9">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P9">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q9">
-        <v>3908.81554720321</v>
+        <v>22.1464814504</v>
       </c>
       <c r="R9">
-        <v>3908.81554720321</v>
+        <v>199.3183330536</v>
       </c>
       <c r="S9">
-        <v>0.1456718493041001</v>
+        <v>0.0007711687774524201</v>
       </c>
       <c r="T9">
-        <v>0.1456718493041001</v>
+        <v>0.0007711687774524197</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H10">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J10">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N10">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O10">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P10">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q10">
-        <v>5889.96602786935</v>
+        <v>33.46585976114222</v>
       </c>
       <c r="R10">
-        <v>5889.96602786935</v>
+        <v>301.19273785028</v>
       </c>
       <c r="S10">
-        <v>0.2195044082425329</v>
+        <v>0.001165323991361528</v>
       </c>
       <c r="T10">
-        <v>0.2195044082425329</v>
+        <v>0.001165323991361528</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>62.9895844069171</v>
+        <v>0.3544293333333333</v>
       </c>
       <c r="H11">
-        <v>62.9895844069171</v>
+        <v>1.063288</v>
       </c>
       <c r="I11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="J11">
-        <v>0.4285601416160004</v>
+        <v>0.002273482573786049</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.73353914114111</v>
+        <v>1.984323333333333</v>
       </c>
       <c r="N11">
-        <v>1.73353914114111</v>
+        <v>5.952970000000001</v>
       </c>
       <c r="O11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="P11">
-        <v>0.009495570763987301</v>
+        <v>0.01077197081864371</v>
       </c>
       <c r="Q11">
-        <v>109.1949100536025</v>
+        <v>0.7033023961511111</v>
       </c>
       <c r="R11">
-        <v>109.1949100536025</v>
+        <v>6.329721565360001</v>
       </c>
       <c r="S11">
-        <v>0.004069423151339151</v>
+        <v>2.448988794151831E-05</v>
       </c>
       <c r="T11">
-        <v>0.004069423151339151</v>
+        <v>2.44898879415183E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H12">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J12">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.7636511144321</v>
+        <v>14.77583066666667</v>
       </c>
       <c r="N12">
-        <v>14.7636511144321</v>
+        <v>44.32749200000001</v>
       </c>
       <c r="O12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490697</v>
       </c>
       <c r="P12">
-        <v>0.08086883680032153</v>
+        <v>0.08021112995490694</v>
       </c>
       <c r="Q12">
-        <v>1151.141222793359</v>
+        <v>966.9578664980913</v>
       </c>
       <c r="R12">
-        <v>1151.141222793359</v>
+        <v>8702.620798482822</v>
       </c>
       <c r="S12">
-        <v>0.04290017492753642</v>
+        <v>0.03367070825338104</v>
       </c>
       <c r="T12">
-        <v>0.04290017492753642</v>
+        <v>0.03367070825338103</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,61 +1207,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H13">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J13">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.5037973206734</v>
+        <v>10.54486</v>
       </c>
       <c r="N13">
-        <v>10.5037973206734</v>
+        <v>31.63458</v>
       </c>
       <c r="O13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774575</v>
       </c>
       <c r="P13">
-        <v>0.05753521704931362</v>
+        <v>0.05724315301774573</v>
       </c>
       <c r="Q13">
-        <v>818.9948406376095</v>
+        <v>690.0752694143666</v>
       </c>
       <c r="R13">
-        <v>818.9948406376095</v>
+        <v>6210.6774247293</v>
       </c>
       <c r="S13">
-        <v>0.0305219040308926</v>
+        <v>0.02402930249016215</v>
       </c>
       <c r="T13">
-        <v>0.0305219040308926</v>
+        <v>0.02402930249016214</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,61 +1269,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H14">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J14">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.0549505764634</v>
+        <v>62.4849</v>
       </c>
       <c r="N14">
-        <v>62.0549505764634</v>
+        <v>187.4547</v>
       </c>
       <c r="O14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967147</v>
       </c>
       <c r="P14">
-        <v>0.3399099336555321</v>
+        <v>0.3392015343967146</v>
       </c>
       <c r="Q14">
-        <v>4838.505809524429</v>
+        <v>4089.1281820555</v>
       </c>
       <c r="R14">
-        <v>4838.505809524429</v>
+        <v>36802.1536384995</v>
       </c>
       <c r="S14">
-        <v>0.1803190968288003</v>
+        <v>0.1423886673855824</v>
       </c>
       <c r="T14">
-        <v>0.1803190968288003</v>
+        <v>0.1423886673855824</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,61 +1331,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>77.9713103398975</v>
+        <v>65.44186166666667</v>
       </c>
       <c r="H15">
-        <v>77.9713103398975</v>
+        <v>196.325585</v>
       </c>
       <c r="I15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="J15">
-        <v>0.530490812344241</v>
+        <v>0.4197760120361104</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>93.5069834691996</v>
+        <v>94.42181166666666</v>
       </c>
       <c r="N15">
-        <v>93.5069834691996</v>
+        <v>283.265435</v>
       </c>
       <c r="O15">
-        <v>0.5121904417308454</v>
+        <v>0.512572211811989</v>
       </c>
       <c r="P15">
-        <v>0.5121904417308454</v>
+        <v>0.5125722118119888</v>
       </c>
       <c r="Q15">
-        <v>7290.862027024627</v>
+        <v>6179.139137406052</v>
       </c>
       <c r="R15">
-        <v>7290.862027024627</v>
+        <v>55612.25223665447</v>
       </c>
       <c r="S15">
-        <v>0.2717123235087518</v>
+        <v>0.2151655189549652</v>
       </c>
       <c r="T15">
-        <v>0.2717123235087518</v>
+        <v>0.2151655189549651</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,61 +1393,681 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>65.44186166666667</v>
+      </c>
+      <c r="H16">
+        <v>196.325585</v>
+      </c>
+      <c r="I16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="J16">
+        <v>0.4197760120361104</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.984323333333333</v>
+      </c>
+      <c r="N16">
+        <v>5.952970000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="P16">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="Q16">
+        <v>129.8578130819389</v>
+      </c>
+      <c r="R16">
+        <v>1168.72031773745</v>
+      </c>
+      <c r="S16">
+        <v>0.004521814952019611</v>
+      </c>
+      <c r="T16">
+        <v>0.00452181495201961</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>23</v>
       </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H17">
+        <v>251.799084</v>
+      </c>
+      <c r="I17">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J17">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>14.77583066666667</v>
+      </c>
+      <c r="N17">
+        <v>44.32749200000001</v>
+      </c>
+      <c r="O17">
+        <v>0.08021112995490697</v>
+      </c>
+      <c r="P17">
+        <v>0.08021112995490694</v>
+      </c>
+      <c r="Q17">
+        <v>1240.180209068592</v>
+      </c>
+      <c r="R17">
+        <v>11161.62188161733</v>
+      </c>
+      <c r="S17">
+        <v>0.04318465927827279</v>
+      </c>
+      <c r="T17">
+        <v>0.04318465927827279</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H18">
+        <v>251.799084</v>
+      </c>
+      <c r="I18">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J18">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10.54486</v>
+      </c>
+      <c r="N18">
+        <v>31.63458</v>
+      </c>
+      <c r="O18">
+        <v>0.05724315301774575</v>
+      </c>
+      <c r="P18">
+        <v>0.05724315301774573</v>
+      </c>
+      <c r="Q18">
+        <v>885.06202963608</v>
+      </c>
+      <c r="R18">
+        <v>7965.55826672472</v>
+      </c>
+      <c r="S18">
+        <v>0.03081899058740483</v>
+      </c>
+      <c r="T18">
+        <v>0.03081899058740482</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H19">
+        <v>251.799084</v>
+      </c>
+      <c r="I19">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J19">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>62.4849</v>
+      </c>
+      <c r="N19">
+        <v>187.4547</v>
+      </c>
+      <c r="O19">
+        <v>0.3392015343967147</v>
+      </c>
+      <c r="P19">
+        <v>0.3392015343967146</v>
+      </c>
+      <c r="Q19">
+        <v>5244.5468612772</v>
+      </c>
+      <c r="R19">
+        <v>47200.9217514948</v>
+      </c>
+      <c r="S19">
+        <v>0.1826218219070649</v>
+      </c>
+      <c r="T19">
+        <v>0.1826218219070648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H20">
+        <v>251.799084</v>
+      </c>
+      <c r="I20">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J20">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>94.42181166666666</v>
+      </c>
+      <c r="N20">
+        <v>283.265435</v>
+      </c>
+      <c r="O20">
+        <v>0.512572211811989</v>
+      </c>
+      <c r="P20">
+        <v>0.5125722118119888</v>
+      </c>
+      <c r="Q20">
+        <v>7925.108562429058</v>
+      </c>
+      <c r="R20">
+        <v>71325.97706186153</v>
+      </c>
+      <c r="S20">
+        <v>0.275962404906344</v>
+      </c>
+      <c r="T20">
+        <v>0.275962404906344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="H16">
-        <v>77.9713103398975</v>
-      </c>
-      <c r="I16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="J16">
-        <v>0.530490812344241</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.73353914114111</v>
-      </c>
-      <c r="N16">
-        <v>1.73353914114111</v>
-      </c>
-      <c r="O16">
-        <v>0.009495570763987301</v>
-      </c>
-      <c r="P16">
-        <v>0.009495570763987301</v>
-      </c>
-      <c r="Q16">
-        <v>135.1663183602729</v>
-      </c>
-      <c r="R16">
-        <v>135.1663183602729</v>
-      </c>
-      <c r="S16">
-        <v>0.005037313048259848</v>
-      </c>
-      <c r="T16">
-        <v>0.005037313048259848</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>83.93302799999999</v>
+      </c>
+      <c r="H21">
+        <v>251.799084</v>
+      </c>
+      <c r="I21">
+        <v>0.5383873697147804</v>
+      </c>
+      <c r="J21">
+        <v>0.5383873697147805</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.984323333333333</v>
+      </c>
+      <c r="N21">
+        <v>5.952970000000001</v>
+      </c>
+      <c r="O21">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="P21">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="Q21">
+        <v>166.55026589772</v>
+      </c>
+      <c r="R21">
+        <v>1498.95239307948</v>
+      </c>
+      <c r="S21">
+        <v>0.005799493035693957</v>
+      </c>
+      <c r="T21">
+        <v>0.005799493035693956</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.134262</v>
+      </c>
+      <c r="H22">
+        <v>0.402786</v>
+      </c>
+      <c r="I22">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J22">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>14.77583066666667</v>
+      </c>
+      <c r="N22">
+        <v>44.32749200000001</v>
+      </c>
+      <c r="O22">
+        <v>0.08021112995490697</v>
+      </c>
+      <c r="P22">
+        <v>0.08021112995490694</v>
+      </c>
+      <c r="Q22">
+        <v>1.983832576968</v>
+      </c>
+      <c r="R22">
+        <v>17.854493192712</v>
+      </c>
+      <c r="S22">
+        <v>6.907958478537748E-05</v>
+      </c>
+      <c r="T22">
+        <v>6.907958478537746E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.134262</v>
+      </c>
+      <c r="H23">
+        <v>0.402786</v>
+      </c>
+      <c r="I23">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J23">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>10.54486</v>
+      </c>
+      <c r="N23">
+        <v>31.63458</v>
+      </c>
+      <c r="O23">
+        <v>0.05724315301774575</v>
+      </c>
+      <c r="P23">
+        <v>0.05724315301774573</v>
+      </c>
+      <c r="Q23">
+        <v>1.41577399332</v>
+      </c>
+      <c r="R23">
+        <v>12.74196593988</v>
+      </c>
+      <c r="S23">
+        <v>4.929905917663482E-05</v>
+      </c>
+      <c r="T23">
+        <v>4.929905917663481E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.134262</v>
+      </c>
+      <c r="H24">
+        <v>0.402786</v>
+      </c>
+      <c r="I24">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J24">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>62.4849</v>
+      </c>
+      <c r="N24">
+        <v>187.4547</v>
+      </c>
+      <c r="O24">
+        <v>0.3392015343967147</v>
+      </c>
+      <c r="P24">
+        <v>0.3392015343967146</v>
+      </c>
+      <c r="Q24">
+        <v>8.389347643800001</v>
+      </c>
+      <c r="R24">
+        <v>75.5041287942</v>
+      </c>
+      <c r="S24">
+        <v>0.0002921278028106688</v>
+      </c>
+      <c r="T24">
+        <v>0.0002921278028106687</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.134262</v>
+      </c>
+      <c r="H25">
+        <v>0.402786</v>
+      </c>
+      <c r="I25">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J25">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>94.42181166666666</v>
+      </c>
+      <c r="N25">
+        <v>283.265435</v>
+      </c>
+      <c r="O25">
+        <v>0.512572211811989</v>
+      </c>
+      <c r="P25">
+        <v>0.5125722118119888</v>
+      </c>
+      <c r="Q25">
+        <v>12.67726127799</v>
+      </c>
+      <c r="R25">
+        <v>114.09535150191</v>
+      </c>
+      <c r="S25">
+        <v>0.0004414384335989352</v>
+      </c>
+      <c r="T25">
+        <v>0.000441438433598935</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.134262</v>
+      </c>
+      <c r="H26">
+        <v>0.402786</v>
+      </c>
+      <c r="I26">
+        <v>0.0008612219379556502</v>
+      </c>
+      <c r="J26">
+        <v>0.0008612219379556503</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.984323333333333</v>
+      </c>
+      <c r="N26">
+        <v>5.952970000000001</v>
+      </c>
+      <c r="O26">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="P26">
+        <v>0.01077197081864371</v>
+      </c>
+      <c r="Q26">
+        <v>0.26641921938</v>
+      </c>
+      <c r="R26">
+        <v>2.39777297442</v>
+      </c>
+      <c r="S26">
+        <v>9.277057584034047E-06</v>
+      </c>
+      <c r="T26">
+        <v>9.277057584034046E-06</v>
       </c>
     </row>
   </sheetData>
